--- a/biology/Botanique/Drosera_neocaledonica/Drosera_neocaledonica.xlsx
+++ b/biology/Botanique/Drosera_neocaledonica/Drosera_neocaledonica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Drosera neocaledonica est une espèce de plantes à fleurs de la famille des Droseraceae. C'est une plante carnivore.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence à la Nouvelle-Calédonie.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est de petite taille[1]. La rosette mesure environ 60 mm. Les tiges peuvent atteindre 120 mm. Les feuilles sont constituées d'un pétiole poilu de 20 mm et d'un limbe glanduleux de 5 mm de long sur 2 de large. Il s'agit d'une plante carnivore.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est de petite taille. La rosette mesure environ 60 mm. Les tiges peuvent atteindre 120 mm. Les feuilles sont constituées d'un pétiole poilu de 20 mm et d'un limbe glanduleux de 5 mm de long sur 2 de large. Il s'agit d'une plante carnivore.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drosera neocaledonica est endémique de la Nouvelle-Calédonie[1]. Présente seulement dans le sud de l'île, elle n'a été trouvée qu'en dessous de 1 000 m d'altitude dans des tourbières sablonneuses.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drosera neocaledonica est endémique de la Nouvelle-Calédonie. Présente seulement dans le sud de l'île, elle n'a été trouvée qu'en dessous de 1 000 m d'altitude dans des tourbières sablonneuses.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nombre de chromosomes de Drosera neocaledonica est de type 2n=40. Cette caractéristique commune avec Drosera spatulata (forme Kanto) peut laisser supposer l'existence d'un ancêtre commun[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nombre de chromosomes de Drosera neocaledonica est de type 2n=40. Cette caractéristique commune avec Drosera spatulata (forme Kanto) peut laisser supposer l'existence d'un ancêtre commun.
 </t>
         </is>
       </c>
